--- a/LM/srilm计算推导.xlsx
+++ b/LM/srilm计算推导.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yufei\git_code\natural_language_processing\LM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8843D4-C82D-44D6-9931-17C7FED616D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BD01B8-76AC-4B19-A201-A5E87768E4F4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{17948B8F-F5EF-445B-BC32-8F6DF57D70A9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{17948B8F-F5EF-445B-BC32-8F6DF57D70A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="61">
   <si>
     <t>&lt;s&gt;</t>
   </si>
@@ -230,6 +231,18 @@
   <si>
     <t>&lt;s&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2-gram</t>
+  </si>
+  <si>
+    <t>似然估计值</t>
+  </si>
+  <si>
+    <t>打折似然估计值</t>
+  </si>
+  <si>
+    <t>bow(a_)</t>
   </si>
 </sst>
 </file>
@@ -910,7 +923,7 @@
   <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="V2" sqref="V2:W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2177,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF53FFA2-C554-43A6-9F1F-21F2CDA019D1}">
   <dimension ref="A1:V20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2365,7 +2378,7 @@
         <v>23</v>
       </c>
       <c r="L4" t="str">
-        <f t="shared" ref="L3:L20" si="3">TRIM(LEFT(SUBSTITUTE(K4," ",REPT(" ",50)),50))</f>
+        <f t="shared" ref="L4:L20" si="3">TRIM(LEFT(SUBSTITUTE(K4," ",REPT(" ",50)),50))</f>
         <v>&lt;s&gt;</v>
       </c>
       <c r="M4">
@@ -3146,4 +3159,334 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856BA676-C5A4-455B-A4E6-F24EEDB41A6D}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>-0.54406804435027567</v>
+      </c>
+      <c r="C2">
+        <v>-1.7481880270062005</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>-0.58626572414473055</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3">
+        <v>-0.24303804868629447</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>-99</v>
+      </c>
+      <c r="G3">
+        <v>-0.26851960000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>-0.84509804001425681</v>
+      </c>
+      <c r="C4">
+        <v>-1.1461280356782382</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4">
+        <v>-1.4313637641589874</v>
+      </c>
+      <c r="G4">
+        <v>-0.17069619999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>-0.30102999566398125</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>-0.95424250943932487</v>
+      </c>
+      <c r="G5">
+        <v>5.115252E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6">
+        <v>-0.17609125905568127</v>
+      </c>
+      <c r="C6">
+        <v>-1.3802112417116061</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6">
+        <v>-0.82930377283102497</v>
+      </c>
+      <c r="G6">
+        <v>0.1118503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7">
+        <v>-0.47712125471966244</v>
+      </c>
+      <c r="C7">
+        <v>-0.77815125038364363</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7">
+        <v>-0.82930377283102497</v>
+      </c>
+      <c r="G7">
+        <v>3.2669110000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C8">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8">
+        <v>-1.4313637641589874</v>
+      </c>
+      <c r="G8">
+        <v>-0.17069619999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C9">
+        <v>-0.90308998699194365</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9">
+        <v>-0.82930377283102497</v>
+      </c>
+      <c r="G9">
+        <v>-0.81414889999999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C10">
+        <v>-0.90308998699194365</v>
+      </c>
+      <c r="E10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10">
+        <v>-1.4313637641589874</v>
+      </c>
+      <c r="G10">
+        <v>-0.17069619999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C11">
+        <v>-1.505149978319906</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11">
+        <v>-1.1303337684950061</v>
+      </c>
+      <c r="G11">
+        <v>-0.17069619999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C12">
+        <v>-0.90308998699194365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C13">
+        <v>-0.90308998699194365</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>-0.30102999566398125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>-0.6020599913279624</v>
+      </c>
+      <c r="C15">
+        <v>-0.90308998699194365</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>-0.12493873660829995</v>
+      </c>
+      <c r="C16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>-0.30102999566398125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C18">
+        <v>-0.60205999132796251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>-0.3010299956639812</v>
+      </c>
+      <c r="C19">
+        <v>-0.60205999132796251</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>